--- a/result/8月/表9-上海进出口贸易伙伴占比变化（2019-2024）.xlsx
+++ b/result/8月/表9-上海进出口贸易伙伴占比变化（2019-2024）.xlsx
@@ -835,11 +835,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -1188,10 +1189,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="J2" sqref="J2:J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1205,6 +1206,7 @@
     <col min="7" max="7" width="10.4444444444444" customWidth="1"/>
     <col min="8" max="8" width="36.6666666666667" customWidth="1"/>
     <col min="9" max="10" width="17.5555555555556" customWidth="1"/>
+    <col min="11" max="11" width="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1239,7 +1241,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1249,7 +1251,7 @@
       <c r="C2">
         <v>4529.1</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>0.133</v>
       </c>
       <c r="E2" t="s">
@@ -1258,20 +1260,24 @@
       <c r="F2">
         <v>4795.6</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="3">
         <v>0.1139</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="4">
         <v>31330605.4822</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="3">
         <v>0.111611773013778</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" s="4">
+        <f>I2/10000</f>
+        <v>3133.06054822</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1281,7 +1287,7 @@
       <c r="C3">
         <v>3709.3</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>0.109</v>
       </c>
       <c r="E3" t="s">
@@ -1290,20 +1296,24 @@
       <c r="F3">
         <v>3913.7</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="3">
         <v>0.0929</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="4">
         <v>24628501.3034</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="3">
         <v>0.0877362775100635</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3" s="4">
+        <f t="shared" ref="K3:K23" si="0">I3/10000</f>
+        <v>2462.85013034</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1313,7 +1323,7 @@
       <c r="C4">
         <v>2268.7</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>0.067</v>
       </c>
       <c r="E4" t="s">
@@ -1322,20 +1332,24 @@
       <c r="F4">
         <v>2645.5</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="3">
         <v>0.0628</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="4">
         <v>17208349.684</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="3">
         <v>0.0613028184202669</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4" s="4">
+        <f t="shared" si="0"/>
+        <v>1720.8349684</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1345,7 +1359,7 @@
       <c r="C5">
         <v>2135.9</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>0.063</v>
       </c>
       <c r="E5" t="s">
@@ -1354,20 +1368,24 @@
       <c r="F5">
         <v>2373.9</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="3">
         <v>0.0564</v>
       </c>
       <c r="H5" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="4">
         <v>15841533.4015</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="3">
         <v>0.0564336884967933</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5" s="4">
+        <f t="shared" si="0"/>
+        <v>1584.15334015</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1377,7 +1395,7 @@
       <c r="C6">
         <v>1722.8</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>0.051</v>
       </c>
       <c r="E6" t="s">
@@ -1386,20 +1404,24 @@
       <c r="F6">
         <v>2228.6</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="3">
         <v>0.0529</v>
       </c>
       <c r="H6" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="4">
         <v>10647243.2491</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="3">
         <v>0.0379296115874995</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6" s="4">
+        <f t="shared" si="0"/>
+        <v>1064.72432491</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1409,7 +1431,7 @@
       <c r="C7">
         <v>1521.6</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>0.045</v>
       </c>
       <c r="E7" t="s">
@@ -1418,20 +1440,24 @@
       <c r="F7">
         <v>2015.9</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="3">
         <v>0.0479</v>
       </c>
       <c r="H7" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="4">
         <v>13773595.3598</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="3">
         <v>0.0490668908315549</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7" s="4">
+        <f t="shared" si="0"/>
+        <v>1377.35953598</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1441,7 +1467,7 @@
       <c r="C8">
         <v>1518.9</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>0.045</v>
       </c>
       <c r="E8" t="s">
@@ -1450,20 +1476,24 @@
       <c r="F8">
         <v>1641.1</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="3">
         <v>0.039</v>
       </c>
       <c r="H8" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="4">
         <v>14387099.2304</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="3">
         <v>0.0512524296583543</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8" s="4">
+        <f t="shared" si="0"/>
+        <v>1438.70992304</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1473,7 +1503,7 @@
       <c r="C9">
         <v>1134.9</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>0.033</v>
       </c>
       <c r="E9" t="s">
@@ -1482,20 +1512,24 @@
       <c r="F9">
         <v>1378.8</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="3">
         <v>0.0327</v>
       </c>
       <c r="H9" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="4">
         <v>11067947.8831</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="3">
         <v>0.0394283247273566</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9" s="4">
+        <f t="shared" si="0"/>
+        <v>1106.79478831</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1505,7 +1539,7 @@
       <c r="C10">
         <v>1006.3</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>0.03</v>
       </c>
       <c r="E10" t="s">
@@ -1514,20 +1548,24 @@
       <c r="F10">
         <v>1125.4</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="3">
         <v>0.0267</v>
       </c>
       <c r="H10" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="4">
         <v>7857451.6658</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="3">
         <v>0.0279912915276485</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10" s="4">
+        <f t="shared" si="0"/>
+        <v>785.74516658</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1537,7 +1575,7 @@
       <c r="C11">
         <v>927.5</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>0.027</v>
       </c>
       <c r="E11" t="s">
@@ -1546,20 +1584,24 @@
       <c r="F11">
         <v>1114.3</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="3">
         <v>0.0265</v>
       </c>
       <c r="H11" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="4">
         <v>8247219.3996</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="3">
         <v>0.0293797954254648</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11" s="4">
+        <f t="shared" si="0"/>
+        <v>824.72193996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1569,7 +1611,7 @@
       <c r="C12">
         <v>792</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>0.023</v>
       </c>
       <c r="E12" t="s">
@@ -1578,20 +1620,24 @@
       <c r="F12">
         <v>1081.6</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="3">
         <v>0.0257</v>
       </c>
       <c r="H12" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="4">
         <v>7033513.5014</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="3">
         <v>0.0250561040977519</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12" s="4">
+        <f t="shared" si="0"/>
+        <v>703.35135014</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1601,7 +1647,7 @@
       <c r="C13">
         <v>720.8</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>0.021</v>
       </c>
       <c r="E13" t="s">
@@ -1610,20 +1656,24 @@
       <c r="F13">
         <v>1075.2</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="3">
         <v>0.0255</v>
       </c>
       <c r="H13" t="s">
         <v>34</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="4">
         <v>7094017.6195</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="3">
         <v>0.0252716432420436</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13" s="4">
+        <f t="shared" si="0"/>
+        <v>709.40176195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1633,7 +1683,7 @@
       <c r="C14">
         <v>711.5</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>0.021</v>
       </c>
       <c r="E14" t="s">
@@ -1642,20 +1692,24 @@
       <c r="F14">
         <v>1068.4</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="3">
         <v>0.0254</v>
       </c>
       <c r="H14" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="4">
         <v>6987290.5956</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="3">
         <v>0.0248914401727882</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14" s="4">
+        <f t="shared" si="0"/>
+        <v>698.72905956</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1665,7 +1719,7 @@
       <c r="C15">
         <v>698.4</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>0.021</v>
       </c>
       <c r="E15" t="s">
@@ -1674,20 +1728,24 @@
       <c r="F15">
         <v>1049.1</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="3">
         <v>0.0249</v>
       </c>
       <c r="H15" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="4">
         <v>6413943.6526</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="3">
         <v>0.0228489559030024</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15" s="4">
+        <f t="shared" si="0"/>
+        <v>641.39436526</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1697,7 +1755,7 @@
       <c r="C16">
         <v>687.1</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <v>0.02</v>
       </c>
       <c r="E16" t="s">
@@ -1706,20 +1764,24 @@
       <c r="F16">
         <v>1022.1</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="3">
         <v>0.0243</v>
       </c>
       <c r="H16" t="s">
         <v>40</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="4">
         <v>7159543.192</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="3">
         <v>0.0255050707552343</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16" s="4">
+        <f t="shared" si="0"/>
+        <v>715.9543192</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1729,7 +1791,7 @@
       <c r="C17">
         <v>679.4</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <v>0.02</v>
       </c>
       <c r="E17" t="s">
@@ -1738,20 +1800,24 @@
       <c r="F17">
         <v>925.7</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="3">
         <v>0.022</v>
       </c>
       <c r="H17" t="s">
         <v>42</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="4">
         <v>6748776.0165</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="3">
         <v>0.0240417586982917</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17" s="4">
+        <f t="shared" si="0"/>
+        <v>674.87760165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1761,7 +1827,7 @@
       <c r="C18">
         <v>654.3</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <v>0.019</v>
       </c>
       <c r="E18" t="s">
@@ -1770,20 +1836,24 @@
       <c r="F18">
         <v>888.9</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="3">
         <v>0.0211</v>
       </c>
       <c r="H18" t="s">
         <v>45</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="4">
         <v>5553528.4293</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="3">
         <v>0.0197838230361921</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18" s="4">
+        <f t="shared" si="0"/>
+        <v>555.35284293</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1793,7 +1863,7 @@
       <c r="C19">
         <v>561.7</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>0.016</v>
       </c>
       <c r="E19" t="s">
@@ -1802,20 +1872,24 @@
       <c r="F19">
         <v>846.3</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="3">
         <v>0.0201</v>
       </c>
       <c r="H19" t="s">
         <v>47</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="4">
         <v>5199917.0614</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="3">
         <v>0.0185241221423945</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19" s="4">
+        <f t="shared" si="0"/>
+        <v>519.99170614</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1825,7 +1899,7 @@
       <c r="C20">
         <v>524</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>0.015</v>
       </c>
       <c r="E20" t="s">
@@ -1834,20 +1908,24 @@
       <c r="F20">
         <v>800.9</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="3">
         <v>0.019</v>
       </c>
       <c r="H20" t="s">
         <v>48</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="4">
         <v>4982487.6114</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="3">
         <v>0.0177495540787898</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20" s="4">
+        <f t="shared" si="0"/>
+        <v>498.24876114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1857,7 +1935,7 @@
       <c r="C21">
         <v>450.2</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2">
         <v>0.013</v>
       </c>
       <c r="E21" t="s">
@@ -1866,20 +1944,24 @@
       <c r="F21">
         <v>682</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="3">
         <v>0.0162</v>
       </c>
       <c r="H21" t="s">
         <v>51</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="4">
         <v>5007974.654</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21" s="3">
         <v>0.0178403488135127</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21" s="4">
+        <f t="shared" si="0"/>
+        <v>500.7974654</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>52</v>
       </c>
@@ -1889,7 +1971,7 @@
       <c r="C22">
         <v>6577.3</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
         <v>0.193</v>
       </c>
       <c r="E22" t="s">
@@ -1898,20 +1980,24 @@
       <c r="F22">
         <v>8445.7</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="3">
         <v>0.2005</v>
       </c>
       <c r="H22" t="s">
         <v>54</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="4">
         <v>53092682.0375</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J22" s="3">
         <v>0.189136733397277</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22" s="4">
+        <f t="shared" si="0"/>
+        <v>5309.26820375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -1921,7 +2007,7 @@
       <c r="C23">
         <v>4701.4</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="2">
         <v>0.138</v>
       </c>
       <c r="E23" t="s">
@@ -1930,17 +2016,21 @@
       <c r="F23">
         <v>5452.6</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="3">
         <v>0.1294</v>
       </c>
       <c r="H23" t="s">
         <v>56</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="4">
         <v>37074756.7333</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23" s="3">
         <v>0.132074668502945</v>
+      </c>
+      <c r="K23" s="4">
+        <f t="shared" si="0"/>
+        <v>3707.47567333</v>
       </c>
     </row>
   </sheetData>
